--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2015 Tokens (TM15).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2015 Tokens (TM15).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,343 +444,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ajani Steadfast Emblem</t>
+          <t>('Ajani Steadfast Emblem', ['Emblem — Ajani', 'If a source would deal damage to you or a planeswalker you control, prevent all but 1 of that damage.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Emblem — Ajani</t>
+          <t>('Beast', ['Token Creature — Beast', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>If a source would deal damage to you or a planeswalker you control, prevent all but 1 of that damage.</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '{R}: This creature gets +1/+0 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Garruk, Apex Predator Emblem', ['Emblem — Garruk', 'Whenever a creature attacks you, it gets +5/+5 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Deathtouch</t>
+          <t>('Insect', ['Token Creature — Insect', 'Flying, deathtouch', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Land Mine', ['Token Artifact', '{R}, Sacrifice this artifact: This artifact deals 2 damage to target attacking creature without flying.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Sliver', ['Token Creature — Sliver', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Soldier', ['Token Creature — Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Squid', ['Token Creature — Squid', 'Islandwalk', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
+          <t>('Treefolk Warrior', ['Token Creature — Treefolk Warrior', 'This creature’s power and toughness are each equal to the number of Forests you control.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{R}: This creature gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Garruk, Apex Predator Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Emblem — Garruk</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever a creature attacks you, it gets +5/+5 and gains trample until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying, deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Land Mine</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{R}, Sacrifice this artifact: This artifact deals 2 damage to target attacking creature without flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Token Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Creature — Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Squid</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Creature — Squid</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Islandwalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Treefolk Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Creature — Treefolk Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>This creature’s power and toughness are each equal to the number of Forests you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
